--- a/Outputs/1. Budget/Output Files/1500000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Output Files/1500000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2260799.652011602</v>
+        <v>2260053.93553004</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>60.49950298759969</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>96.22254942944286</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>130.9809232457614</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D5" t="n">
-        <v>33.32852315355332</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>78.0850632036653</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>11.10798889984581</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>109.1530462869109</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>128.0537032279749</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>136.5752847581504</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.4552226741776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>42.02510219382533</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>130.8120409536878</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>103.5984548599791</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>71.64469598743577</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>97.24018360678635</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>209.455222674174</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>106.1850234365658</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>45.37449962547137</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>33.92423056204057</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>177.8234510312791</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>105.7743128814911</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>158.2076982238471</v>
+        <v>169.7438101404427</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>197.6400173268493</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>43.04265191600534</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396425339</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>149.7290349721173</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2072.529454785695</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>661.2533202511061</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>275.4650676528618</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>268.5195669036584</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4372,10 +4372,10 @@
         <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>2072.529454785695</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y2" t="n">
-        <v>2072.529454785695</v>
+        <v>1406.118858921978</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>322.5758555962227</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>322.5758555962227</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>322.5758555962227</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1362.140678483279</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C5" t="n">
-        <v>993.1781615428677</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2125.745768720171</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1752.280010459091</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1362.140678483279</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.5651556036578</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>290.5651556036578</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>290.5651556036578</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>290.5651556036578</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>290.5651556036578</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>290.5651556036578</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.5651556036578</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763.586886263858</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4801,7 +4801,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2685.928900210297</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="W8" t="n">
-        <v>2137.052644524937</v>
+        <v>2509.751412524467</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.586886263858</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y8" t="n">
-        <v>1763.586886263858</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084169</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>331.20325038051</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>331.20325038051</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>183.2901567981169</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>183.2901567981169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5004,10 +5004,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5123,22 +5123,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>816.7950850315617</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.115218311523</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975556</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.7516828383384</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5235,16 +5235,16 @@
         <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324571</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324571</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7516828383384</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="14">
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5363,16 +5363,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.0432218861031</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>139.666689635867</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1366.782895857208</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1366.782895857208</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1112.098407651321</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>822.6812376143602</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>594.6916867163428</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.6916867163428</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>826.1356072130308</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C19" t="n">
-        <v>657.1994242851239</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D19" t="n">
-        <v>507.0827848727882</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1394.271366658934</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1194.351356574486</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>970.5659413639917</v>
       </c>
       <c r="U19" t="n">
-        <v>1115.552777249991</v>
+        <v>681.4373025775499</v>
       </c>
       <c r="V19" t="n">
-        <v>1115.552777249991</v>
+        <v>681.4373025775499</v>
       </c>
       <c r="W19" t="n">
-        <v>826.1356072130308</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="X19" t="n">
-        <v>826.1356072130308</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y19" t="n">
-        <v>826.1356072130308</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="20">
@@ -5731,34 +5731,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5776,22 +5776,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277032</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3570.689985294733</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C22" t="n">
-        <v>3570.689985294733</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D22" t="n">
-        <v>3570.689985294733</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>3570.689985294733</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>3570.689985294733</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294733</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294733</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.53808638059</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625202</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636331</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403514</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431061</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436458</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>3782.260917288848</v>
+        <v>1111.565224087838</v>
       </c>
       <c r="W22" t="n">
-        <v>3782.260917288848</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="X22" t="n">
-        <v>3570.689985294733</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="Y22" t="n">
-        <v>3570.689985294733</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6077,16 +6077,16 @@
         <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4040.160816087026</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3871.22463315912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4549.85945949167</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>4549.85945949167</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4549.85945949167</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>4442.601860060796</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>4442.601860060796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>4221.809280917266</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,61 +6214,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,16 +6314,16 @@
         <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1453.083442653386</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1453.083442653386</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.083442653386</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.954803866944</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.954803866944</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>874.5376338299834</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>646.5480829319661</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3925.661817631306</v>
+        <v>468.5954956259889</v>
       </c>
       <c r="C31" t="n">
-        <v>3925.661817631306</v>
+        <v>299.659312698082</v>
       </c>
       <c r="D31" t="n">
-        <v>3925.661817631306</v>
+        <v>299.659312698082</v>
       </c>
       <c r="E31" t="n">
-        <v>3777.748724048913</v>
+        <v>299.659312698082</v>
       </c>
       <c r="F31" t="n">
-        <v>3777.748724048913</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.859459491672</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281178</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>4146.454396774836</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V31" t="n">
-        <v>4146.454396774836</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W31" t="n">
-        <v>4146.454396774836</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X31" t="n">
-        <v>4146.454396774836</v>
+        <v>468.5954956259889</v>
       </c>
       <c r="Y31" t="n">
-        <v>3925.661817631306</v>
+        <v>468.5954956259889</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515096</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3927.865363461246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3927.865363461246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>4437.14914771935</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>4330.306407435016</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>4330.306407435016</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>4330.306407435016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4109.513828291486</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,31 +6952,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465858</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>3644.018355938592</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>3973.880983602625</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3778.208216256917</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3609.27203332901</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>4637.069157803799</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>4477.263402022135</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>4187.846231985174</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3959.856681087157</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>3959.856681087157</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>2405.169842307182</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>2554.239526509242</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>2801.004654415706</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>3569.372800808167</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>3899.2354284722</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3944.179992107154</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>3775.243809179247</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3775.243809179247</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>4660.934562929845</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4371.805924143403</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>4371.805924143403</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>4172.169543005171</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3944.179992107154</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>3944.179992107154</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7432,10 +7432,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>3446.276123502709</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>3776.138751166742</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>4445.602512469402</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>4650.624993251611</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>604.4337416462794</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>435.4975587183725</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>435.4975587183725</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>287.5844651359794</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>140.694517638069</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765191</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>786.0822064765191</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>786.0822064765191</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>786.0822064765191</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,22 +7639,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515096</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2554.239526509242</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>2801.004654415706</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>3569.372800808167</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>3899.2354284722</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7845,13 +7845,13 @@
         <v>955.1031435655742</v>
       </c>
       <c r="W46" t="n">
-        <v>955.1031435655742</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X46" t="n">
-        <v>727.1135926675569</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y46" t="n">
-        <v>575.8721432007717</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>20.63789864135532</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,19 +9011,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>38.86002301949844</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>91.23759968302159</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,19 +9725,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>104.6241510367943</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599021</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9962,19 +9962,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>104.6241510367943</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445216</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>124.3400780863224</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445216</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>199.7396287231143</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>29.47535963978152</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445216</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.6026921294522</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>29.47535963978137</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445216</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>8.845763264780857</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.129430677917213</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>103.3959458291059</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23706,10 +23706,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>90.73552010470146</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.365897543813716</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>214.5926564111416</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>154.8974597170417</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>16.25443271486313</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>180.3379749000252</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>64.58985277832141</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>111.4968174608907</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>108.4139013672983</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>146.3633304423369</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>93.92994509998093</v>
+        <v>82.39383318338528</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,19 +25599,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>88.88298100974171</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>123.4509165473722</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>61.34209567542474</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.85561837997747</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="9">
@@ -26316,43 +26316,43 @@
         <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="G2" t="n">
-        <v>547440.6836327922</v>
-      </c>
       <c r="H2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="L2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="M2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="M2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="N2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="P2" t="n">
         <v>547440.6836327919</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171008.2365831803</v>
+        <v>170145.3182453287</v>
       </c>
       <c r="C4" t="n">
-        <v>171008.2365831803</v>
+        <v>170145.3182453288</v>
       </c>
       <c r="D4" t="n">
-        <v>171008.2365831803</v>
+        <v>170145.3182453287</v>
       </c>
       <c r="E4" t="n">
-        <v>26500.76044945709</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="F4" t="n">
-        <v>26500.76044945709</v>
+        <v>25806.27477253064</v>
       </c>
       <c r="G4" t="n">
-        <v>26500.76044945709</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="H4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="I4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="J4" t="n">
-        <v>26500.76044945707</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="K4" t="n">
-        <v>26500.76044945703</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="L4" t="n">
-        <v>26500.76044945708</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="M4" t="n">
-        <v>26500.76044945708</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="N4" t="n">
-        <v>26500.76044945708</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="O4" t="n">
-        <v>26500.76044945707</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="P4" t="n">
-        <v>26500.76044945708</v>
+        <v>25806.27477253062</v>
       </c>
     </row>
     <row r="5">
@@ -26487,28 +26487,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-269105.9549561354</v>
+        <v>-268243.0366182838</v>
       </c>
       <c r="C6" t="n">
-        <v>320861.9242584092</v>
+        <v>321724.8425962605</v>
       </c>
       <c r="D6" t="n">
-        <v>320861.9242584086</v>
+        <v>321724.8425962605</v>
       </c>
       <c r="E6" t="n">
-        <v>-96207.43924227776</v>
+        <v>-96487.54482507307</v>
       </c>
       <c r="F6" t="n">
-        <v>428952.5972346184</v>
+        <v>428672.491651823</v>
       </c>
       <c r="G6" t="n">
-        <v>428952.5972346185</v>
+        <v>428672.4916518232</v>
       </c>
       <c r="H6" t="n">
-        <v>428952.5972346185</v>
+        <v>428672.4916518229</v>
       </c>
       <c r="I6" t="n">
-        <v>428952.5972346184</v>
+        <v>428672.491651823</v>
       </c>
       <c r="J6" t="n">
-        <v>252529.3780420254</v>
+        <v>252249.2724592302</v>
       </c>
       <c r="K6" t="n">
-        <v>428952.5972346185</v>
+        <v>428672.4916518228</v>
       </c>
       <c r="L6" t="n">
-        <v>428952.5972346184</v>
+        <v>428672.4916518228</v>
       </c>
       <c r="M6" t="n">
-        <v>294151.5820007812</v>
+        <v>293871.4764179857</v>
       </c>
       <c r="N6" t="n">
-        <v>428952.5972346185</v>
+        <v>428672.4916518229</v>
       </c>
       <c r="O6" t="n">
-        <v>428952.5972346183</v>
+        <v>428672.4916518229</v>
       </c>
       <c r="P6" t="n">
-        <v>428952.5972346182</v>
+        <v>428672.4916518229</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,7 +26755,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26816,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>353.2846670331953</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>273.5085512490261</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>36.2658978528664</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D5" t="n">
-        <v>321.3545184671297</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>67.33598481926595</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>43.37041367496591</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>240.0879224305021</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>39.25609903107602</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,31 +32639,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35254,7 +35254,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>269.8956035973795</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>349.2844000699646</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>340.4953046390458</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006117968</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>415.0485280872606</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36615,7 +36615,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502023</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349813</v>
@@ -36682,19 +36682,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>415.0485280872606</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109124</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
         <v>803.580930408112</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>457.5346514843354</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>510.1640057735807</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>71.38553859468823</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504664</v>
@@ -37873,16 +37873,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
-        <v>201.6157249145263</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
         <v>803.580930408112</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>180.0507982277207</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1500000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Output Files/1500000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2260053.93553004</v>
+        <v>2264993.198379073</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>305.9894042936363</v>
       </c>
       <c r="G2" t="n">
-        <v>60.49950298759969</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>138.3038958997682</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>10.11197856605508</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.10798889984581</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>18.94475221673046</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>37.83808333974883</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>136.5752847581504</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.3698148006631</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>42.02510219382533</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>103.5984548599791</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>151.91054534376</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>97.24018360678635</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>188.1607094910709</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>25.46114816159237</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>33.92423056204057</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>141.5464324091515</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>75.41574790503751</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>169.7438101404427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>80.34442404788952</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.562624396425339</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>118.4898845065126</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1019.519018857857</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C2" t="n">
-        <v>1019.519018857857</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D2" t="n">
-        <v>661.2533202511061</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="E2" t="n">
-        <v>275.4650676528618</v>
+        <v>934.4529722842963</v>
       </c>
       <c r="F2" t="n">
-        <v>268.5195669036584</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1796.25819089779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1406.118858921978</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2247.308246834948</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
         <v>1749.341643278937</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2686.93497125453</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2686.93497125453</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2686.93497125453</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2433.173185892622</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2102.110298549051</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834948</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="6">
@@ -4661,7 +4661,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.546482223453</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830418</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2685.928900210297</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2509.751412524467</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2509.751412524467</v>
+        <v>2446.806800512652</v>
       </c>
       <c r="U8" t="n">
-        <v>2509.751412524467</v>
+        <v>2446.806800512652</v>
       </c>
       <c r="V8" t="n">
-        <v>2509.751412524467</v>
+        <v>2446.806800512652</v>
       </c>
       <c r="W8" t="n">
-        <v>2509.751412524467</v>
+        <v>2446.806800512652</v>
       </c>
       <c r="X8" t="n">
-        <v>2136.285654263387</v>
+        <v>2073.341042251573</v>
       </c>
       <c r="Y8" t="n">
-        <v>1746.146322287575</v>
+        <v>2073.341042251573</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>689.9086980046677</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>520.9725150767608</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036444</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>385.5899330013834</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>385.5899330013834</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>385.5899330013834</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>385.5899330013834</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>675.007103038344</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>385.5899330013834</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X13" t="n">
-        <v>385.5899330013834</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.5899330013834</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="14">
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>437.6964226305959</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C16" t="n">
-        <v>437.6964226305959</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="D16" t="n">
-        <v>287.5797832182601</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="E16" t="n">
-        <v>139.666689635867</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5478,10 +5478,10 @@
         <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305959</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>437.6964226305959</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1394.271366658934</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1194.351356574486</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>970.5659413639917</v>
+        <v>1345.471275261175</v>
       </c>
       <c r="U19" t="n">
-        <v>681.4373025775499</v>
+        <v>1056.342636474733</v>
       </c>
       <c r="V19" t="n">
-        <v>681.4373025775499</v>
+        <v>801.6581482688464</v>
       </c>
       <c r="W19" t="n">
-        <v>392.0201325405893</v>
+        <v>801.6581482688464</v>
       </c>
       <c r="X19" t="n">
-        <v>392.0201325405893</v>
+        <v>573.668597370829</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.0201325405893</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,22 +5776,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1111.565224087838</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>822.1480540508779</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,49 +5968,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1308.854947839649</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="26">
@@ -6208,46 +6208,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>234.4700143146943</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>234.4700143146943</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>416.118479144934</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>416.118479144934</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>468.5954956259889</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C31" t="n">
-        <v>299.659312698082</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D31" t="n">
-        <v>299.659312698082</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E31" t="n">
-        <v>299.659312698082</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1244.864972767049</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347409</v>
+        <v>1021.079557556555</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609669</v>
+        <v>1021.079557556555</v>
       </c>
       <c r="V31" t="n">
-        <v>986.0022165609669</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="W31" t="n">
-        <v>696.5850465240062</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="X31" t="n">
-        <v>468.5954956259889</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="Y31" t="n">
-        <v>468.5954956259889</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,13 +6724,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>638.8778922268339</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>638.8778922268339</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>820.5263570570736</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7426,16 +7426,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>496.665036439558</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>346.5483970272223</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>346.5483970272223</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="44">
@@ -7648,19 +7648,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655742</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286137</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305963</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.9038434870662</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720721</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627438</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>8.845763264780857</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>27.33984058837402</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>103.3959458291059</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>2.126008749765674</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.365897543813716</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>69.63701571462929</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>154.8974597170417</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>33.38685156731836</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>123.15432485662</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>111.4968174608907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>56.37437757445178</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>73.19972511317485</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>82.39383318338528</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>65.07662397504173</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>61.34209567542474</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049991</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049986</v>
-      </c>
       <c r="E2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="H2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327917</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.6836327917</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="N2" t="n">
         <v>547440.6836327919</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
         <v>547440.6836327919</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>170145.3182453287</v>
       </c>
       <c r="C4" t="n">
+        <v>170145.3182453287</v>
+      </c>
+      <c r="D4" t="n">
         <v>170145.3182453288</v>
       </c>
-      <c r="D4" t="n">
-        <v>170145.3182453287</v>
-      </c>
       <c r="E4" t="n">
-        <v>25806.27477253063</v>
+        <v>25806.27477253064</v>
       </c>
       <c r="F4" t="n">
         <v>25806.27477253064</v>
@@ -26441,25 +26441,25 @@
         <v>25806.27477253063</v>
       </c>
       <c r="J4" t="n">
-        <v>25806.27477253062</v>
+        <v>25806.27477253064</v>
       </c>
       <c r="K4" t="n">
-        <v>25806.27477253062</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="L4" t="n">
-        <v>25806.27477253062</v>
+        <v>25806.27477253065</v>
       </c>
       <c r="M4" t="n">
-        <v>25806.27477253063</v>
+        <v>25806.27477253064</v>
       </c>
       <c r="N4" t="n">
-        <v>25806.27477253063</v>
+        <v>25806.27477253064</v>
       </c>
       <c r="O4" t="n">
         <v>25806.27477253063</v>
       </c>
       <c r="P4" t="n">
-        <v>25806.27477253062</v>
+        <v>25806.27477253064</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268243.0366182838</v>
+        <v>-268243.0366182836</v>
       </c>
       <c r="C6" t="n">
-        <v>321724.8425962605</v>
+        <v>321724.8425962607</v>
       </c>
       <c r="D6" t="n">
-        <v>321724.8425962605</v>
+        <v>321724.8425962606</v>
       </c>
       <c r="E6" t="n">
-        <v>-96487.54482507307</v>
+        <v>-95610.41269132348</v>
       </c>
       <c r="F6" t="n">
-        <v>428672.491651823</v>
+        <v>429549.6237855727</v>
       </c>
       <c r="G6" t="n">
-        <v>428672.4916518232</v>
+        <v>429549.623785573</v>
       </c>
       <c r="H6" t="n">
-        <v>428672.4916518229</v>
+        <v>429549.6237855725</v>
       </c>
       <c r="I6" t="n">
-        <v>428672.491651823</v>
+        <v>429549.6237855727</v>
       </c>
       <c r="J6" t="n">
-        <v>252249.2724592302</v>
+        <v>253126.4045929796</v>
       </c>
       <c r="K6" t="n">
-        <v>428672.4916518228</v>
+        <v>429549.6237855724</v>
       </c>
       <c r="L6" t="n">
-        <v>428672.4916518228</v>
+        <v>429549.6237855727</v>
       </c>
       <c r="M6" t="n">
-        <v>293871.4764179857</v>
+        <v>294748.6085517355</v>
       </c>
       <c r="N6" t="n">
-        <v>428672.4916518229</v>
+        <v>429549.6237855724</v>
       </c>
       <c r="O6" t="n">
-        <v>428672.4916518229</v>
+        <v>429549.6237855725</v>
       </c>
       <c r="P6" t="n">
-        <v>428672.4916518229</v>
+        <v>429549.6237855724</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26752,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>100.8866414480752</v>
       </c>
       <c r="G2" t="n">
-        <v>353.2846670331953</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>226.9689958712394</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.36642400875662</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.37041367496591</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>197.5035681409273</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>141.9938968421885</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
